--- a/Tables/aq_annual_hmf_sum_outlet_50_95.xlsx
+++ b/Tables/aq_annual_hmf_sum_outlet_50_95.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.192328496152743</v>
+        <v>1.254268662002601</v>
       </c>
     </row>
     <row r="3">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.514508464093325</v>
+        <v>0.8777821176379058</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.663836842944836</v>
+        <v>3.563713202451831</v>
       </c>
     </row>
     <row r="6">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.609917058214419</v>
+        <v>8.127940745640771</v>
       </c>
     </row>
     <row r="12">
